--- a/biology/Botanique/Ochna_integerrima/Ochna_integerrima.xlsx
+++ b/biology/Botanique/Ochna_integerrima/Ochna_integerrima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ochna integerrima est une espèce de plantes à fleurs de la famille des Ochnaceae. C'est un arbuste originaire d'Asie du Sud-Est. Dans la partie Sud (approx.) du  Viêt Nam, c'est un symbole du nouvel an lunaire où sa floraison est contrôlée par les horticulteurs pour s'épanouir exactement le jour (mobile) de la fête du Têt pour porter bonheur, à l'instar du Muguet de mai en Europe tempérée qui doit s'ouvrir le 1er mai. Dans la partie Nord du Viêt Nam, c'est la fleur rose du pêcher qui tient historiquement ce rôle (le pêcher ne pousse pas dans le Sud) . 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Spécimen en herbier.
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Inde, Chine du sud, Indochine, Malaisie.
 </t>
@@ -578,11 +594,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite pour la première fois par João de Loureiro (1717-1791) sous le basionyme de Elaeocarpus integerrimus, puis reclassée en 1935 dans le genre Ochna par Elmer Drew Merrill (1876-1956).
-L'épithète spécifique integer signifie « entier »[4] suivi suffixe ima, du féminin de imus, « le plus »[5]. 
-En classification phylogénétique APG IV (2016)[6], elle est classée dans le genre Ochna, assigné à la famille des Ochnaceae, tout comme en classification phylogénétique APG II (2003)[7] ou en classification classique de Cronquist (1981)[8].
+L'épithète spécifique integer signifie « entier » suivi suffixe ima, du féminin de imus, « le plus ». 
+En classification phylogénétique APG IV (2016), elle est classée dans le genre Ochna, assigné à la famille des Ochnaceae, tout comme en classification phylogénétique APG II (2003) ou en classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Arbre cultivé en pot, miniaturisé en bonsaï.
